--- a/Public/upfiles/a/5494d93f388d2.xlsx
+++ b/Public/upfiles/a/5494d93f388d2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15375" windowHeight="8730"/>
+    <workbookView windowWidth="16005" windowHeight="8730"/>
   </bookViews>
   <sheets>
     <sheet name="course" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <t>chId</t>
   </si>
   <si>
-    <t>stage</t>
+    <t>stageIds</t>
   </si>
   <si>
     <t>pressId</t>
@@ -84,7 +84,7 @@
     <t>早教</t>
   </si>
   <si>
-    <t>0-1岁123</t>
+    <t>0-1岁，1-2岁</t>
   </si>
   <si>
     <t>某某出版社</t>
@@ -287,10 +287,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -723,7 +723,7 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
